--- a/data/trans_orig/P38C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P38C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29F0571D-E56D-4675-B962-36AB6C1E49C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{682BB822-0167-40C7-B813-7B9F305D9C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A8CBE14C-6202-4EF6-BA95-276C5CE4DD5D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B16E5CDB-39B9-4DD1-8FBF-94EF946E6295}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="272">
   <si>
     <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2015 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>56,36%</t>
   </si>
   <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
   </si>
   <si>
     <t>65,47%</t>
   </si>
   <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
   </si>
   <si>
     <t>60,85%</t>
   </si>
   <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>43,64%</t>
   </si>
   <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
   </si>
   <si>
     <t>34,53%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
   </si>
   <si>
     <t>39,15%</t>
   </si>
   <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>68,4%</t>
   </si>
   <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
   </si>
   <si>
     <t>82,3%</t>
   </si>
   <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
   </si>
   <si>
     <t>75,2%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
   </si>
   <si>
     <t>31,6%</t>
   </si>
   <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
   </si>
   <si>
     <t>24,8%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,19 +195,19 @@
     <t>81,09%</t>
   </si>
   <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
   </si>
   <si>
     <t>85,36%</t>
   </si>
   <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>83,22%</t>
@@ -216,31 +216,31 @@
     <t>81,02%</t>
   </si>
   <si>
-    <t>85,22%</t>
+    <t>85,32%</t>
   </si>
   <si>
     <t>18,91%</t>
   </si>
   <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
   </si>
   <si>
     <t>14,64%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>16,78%</t>
   </si>
   <si>
-    <t>14,78%</t>
+    <t>14,68%</t>
   </si>
   <si>
     <t>18,98%</t>
@@ -252,55 +252,55 @@
     <t>87,24%</t>
   </si>
   <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
   </si>
   <si>
     <t>90,32%</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>88,79%</t>
   </si>
   <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -309,19 +309,19 @@
     <t>92,21%</t>
   </si>
   <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>92,66%</t>
@@ -330,31 +330,31 @@
     <t>90,86%</t>
   </si>
   <si>
-    <t>94,27%</t>
+    <t>94,25%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>5,73%</t>
+    <t>5,75%</t>
   </si>
   <si>
     <t>9,14%</t>
@@ -366,481 +366,493 @@
     <t>97,16%</t>
   </si>
   <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
   <si>
     <t>81,47%</t>
   </si>
   <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
     <t>79,87%</t>
   </si>
   <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
     <t>82,8%</t>
   </si>
   <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
+    <t>15,89%</t>
   </si>
   <si>
     <t>19,12%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFA6C03-8FC6-462C-A0F6-8A86EB441F43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7530C2FD-49B4-4265-A266-09A297F78BF2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1713,7 +1725,7 @@
         <v>1073</v>
       </c>
       <c r="N10" s="7">
-        <v>1092992</v>
+        <v>1092991</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1815,7 +1827,7 @@
         <v>1287</v>
       </c>
       <c r="N12" s="7">
-        <v>1313435</v>
+        <v>1313434</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2178,7 +2190,7 @@
         <v>1249</v>
       </c>
       <c r="N19" s="7">
-        <v>1335070</v>
+        <v>1335069</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2280,7 +2292,7 @@
         <v>1280</v>
       </c>
       <c r="N21" s="7">
-        <v>1367218</v>
+        <v>1367217</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2471,7 +2483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05286F3-FEC3-400E-9683-7023D2DBC03E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9C0268-88BC-4640-896C-D7B9E5BC11AE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3060,28 +3072,28 @@
         <v>578277</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>1040</v>
       </c>
       <c r="I13" s="7">
-        <v>673177</v>
+        <v>673178</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>1620</v>
@@ -3090,13 +3102,13 @@
         <v>1251455</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3123,13 @@
         <v>145713</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>99</v>
@@ -3126,13 +3138,13 @@
         <v>73517</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>184</v>
@@ -3141,13 +3153,13 @@
         <v>219230</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,7 +3186,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746694</v>
+        <v>746695</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3215,13 +3227,13 @@
         <v>549368</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>946</v>
@@ -3230,13 +3242,13 @@
         <v>558742</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>1552</v>
@@ -3245,13 +3257,13 @@
         <v>1108110</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3278,13 @@
         <v>50789</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -3281,13 +3293,13 @@
         <v>38321</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>113</v>
@@ -3296,13 +3308,13 @@
         <v>89110</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,16 +3379,16 @@
         <v>994</v>
       </c>
       <c r="D19" s="7">
-        <v>673179</v>
+        <v>673180</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>1658</v>
@@ -3385,13 +3397,13 @@
         <v>994731</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>2652</v>
@@ -3400,13 +3412,13 @@
         <v>1667911</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3433,13 @@
         <v>24575</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>49</v>
@@ -3436,13 +3448,13 @@
         <v>31281</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>83</v>
@@ -3451,13 +3463,13 @@
         <v>55856</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,7 +3481,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3525,13 +3537,13 @@
         <v>2665699</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>4839</v>
@@ -3540,13 +3552,13 @@
         <v>3281398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>7709</v>
@@ -3555,13 +3567,13 @@
         <v>5947097</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3588,13 @@
         <v>718067</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>517</v>
@@ -3591,13 +3603,13 @@
         <v>517634</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>1022</v>
@@ -3606,13 +3618,13 @@
         <v>1235701</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P38C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P38C-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{682BB822-0167-40C7-B813-7B9F305D9C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F3B890C-D240-4C10-A5D3-BD55700F8228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B16E5CDB-39B9-4DD1-8FBF-94EF946E6295}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB4653A7-9829-4C9F-A28D-661B9592365D}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="272">
-  <si>
-    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2015 (Tasa respuesta: 99,27%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="268">
+  <si>
+    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2016 (Tasa respuesta: 99,27%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>56,36%</t>
   </si>
   <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
   </si>
   <si>
     <t>65,47%</t>
   </si>
   <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
   </si>
   <si>
     <t>60,85%</t>
   </si>
   <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>43,64%</t>
   </si>
   <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
   </si>
   <si>
     <t>34,53%</t>
   </si>
   <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
   </si>
   <si>
     <t>39,15%</t>
   </si>
   <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>68,4%</t>
   </si>
   <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
   </si>
   <si>
     <t>82,3%</t>
   </si>
   <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
   </si>
   <si>
     <t>75,2%</t>
   </si>
   <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
   </si>
   <si>
     <t>31,6%</t>
   </si>
   <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
   </si>
   <si>
     <t>24,8%</t>
   </si>
   <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -204,19 +204,19 @@
     <t>85,36%</t>
   </si>
   <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
   </si>
   <si>
     <t>83,22%</t>
   </si>
   <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
   </si>
   <si>
     <t>18,91%</t>
@@ -231,19 +231,19 @@
     <t>14,64%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>16,78%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -252,55 +252,55 @@
     <t>87,24%</t>
   </si>
   <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
   </si>
   <si>
     <t>90,32%</t>
   </si>
   <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
   </si>
   <si>
     <t>88,79%</t>
   </si>
   <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -309,55 +309,55 @@
     <t>92,21%</t>
   </si>
   <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>93,09%</t>
   </si>
   <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>92,66%</t>
   </si>
   <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -366,73 +366,73 @@
     <t>97,16%</t>
   </si>
   <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
   </si>
   <si>
     <t>81,47%</t>
   </si>
   <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
   </si>
   <si>
     <t>87,44%</t>
   </si>
   <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
   </si>
   <si>
     <t>84,53%</t>
@@ -441,33 +441,27 @@
     <t>83,59%</t>
   </si>
   <si>
-    <t>85,39%</t>
-  </si>
-  <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
   </si>
   <si>
     <t>12,56%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
     <t>16,41%</t>
   </si>
   <si>
@@ -588,9 +582,6 @@
     <t>76,04%</t>
   </si>
   <si>
-    <t>72,3%</t>
-  </si>
-  <si>
     <t>79,81%</t>
   </si>
   <si>
@@ -616,9 +607,6 @@
   </si>
   <si>
     <t>20,19%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
   </si>
   <si>
     <t>16,26%</t>
@@ -1264,7 +1252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7530C2FD-49B4-4265-A266-09A297F78BF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0430DC-FC65-4860-8051-6B33041A1207}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2190,7 +2178,7 @@
         <v>1249</v>
       </c>
       <c r="N19" s="7">
-        <v>1335069</v>
+        <v>1335070</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2292,7 +2280,7 @@
         <v>1280</v>
       </c>
       <c r="N21" s="7">
-        <v>1367217</v>
+        <v>1367218</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2354,7 +2342,7 @@
         <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2357,13 @@
         <v>622110</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>437</v>
@@ -2384,13 +2372,13 @@
         <v>443068</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1021</v>
@@ -2399,13 +2387,13 @@
         <v>1065178</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,7 +2449,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2483,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9C0268-88BC-4640-896C-D7B9E5BC11AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA82778-8170-4519-BEA7-7E5B95F9831D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2500,7 +2488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2607,13 +2595,13 @@
         <v>167335</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -2622,13 +2610,13 @@
         <v>202187</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>202</v>
@@ -2637,13 +2625,13 @@
         <v>369522</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2646,13 @@
         <v>210344</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>80</v>
@@ -2673,13 +2661,13 @@
         <v>145181</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>173</v>
@@ -2688,13 +2676,13 @@
         <v>355525</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2750,13 @@
         <v>274907</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>351</v>
@@ -2777,13 +2765,13 @@
         <v>364114</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>548</v>
@@ -2792,13 +2780,13 @@
         <v>639022</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2801,13 @@
         <v>153489</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>109</v>
@@ -2828,13 +2816,13 @@
         <v>134463</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>214</v>
@@ -2843,13 +2831,13 @@
         <v>287951</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2905,13 @@
         <v>422631</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>721</v>
@@ -2932,13 +2920,13 @@
         <v>488445</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>1135</v>
@@ -2947,13 +2935,13 @@
         <v>911077</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +2956,13 @@
         <v>133159</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="H11" s="7">
         <v>124</v>
@@ -2983,13 +2971,13 @@
         <v>94871</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>255</v>
@@ -2998,13 +2986,13 @@
         <v>228029</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3060,13 @@
         <v>578277</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>1040</v>
@@ -3087,13 +3075,13 @@
         <v>673178</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>1620</v>
@@ -3102,13 +3090,13 @@
         <v>1251455</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,13 +3111,13 @@
         <v>145713</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>99</v>
@@ -3138,13 +3126,13 @@
         <v>73517</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>184</v>
@@ -3153,13 +3141,13 @@
         <v>219230</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3215,13 @@
         <v>549368</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>946</v>
@@ -3242,13 +3230,13 @@
         <v>558742</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>1552</v>
@@ -3257,13 +3245,13 @@
         <v>1108110</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3266,13 @@
         <v>50789</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -3293,13 +3281,13 @@
         <v>38321</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>113</v>
@@ -3308,13 +3296,13 @@
         <v>89110</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3370,13 @@
         <v>673180</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>1658</v>
@@ -3397,13 +3385,13 @@
         <v>994731</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>2652</v>
@@ -3412,13 +3400,13 @@
         <v>1667911</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3421,13 @@
         <v>24575</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>49</v>
@@ -3448,13 +3436,13 @@
         <v>31281</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>83</v>
@@ -3463,13 +3451,13 @@
         <v>55856</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3525,13 @@
         <v>2665699</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>4839</v>
@@ -3552,13 +3540,13 @@
         <v>3281398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>7709</v>
@@ -3567,13 +3555,13 @@
         <v>5947097</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3576,13 @@
         <v>718067</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>517</v>
@@ -3603,13 +3591,13 @@
         <v>517634</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>1022</v>
@@ -3618,13 +3606,13 @@
         <v>1235701</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,7 +3668,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P38C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F3B890C-D240-4C10-A5D3-BD55700F8228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6271529-B8C8-437C-9662-89ADE4999917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB4653A7-9829-4C9F-A28D-661B9592365D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C686A6D9-C394-489D-8F48-63476EF89B3B}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -69,34 +69,34 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>56,36%</t>
   </si>
   <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
   </si>
   <si>
     <t>65,47%</t>
   </si>
   <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
   </si>
   <si>
     <t>60,85%</t>
   </si>
   <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>43,64%</t>
   </si>
   <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
   </si>
   <si>
     <t>34,53%</t>
   </si>
   <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
   </si>
   <si>
     <t>39,15%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>68,4%</t>
   </si>
   <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
   </si>
   <si>
     <t>82,3%</t>
   </si>
   <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
   </si>
   <si>
     <t>75,2%</t>
   </si>
   <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
   </si>
   <si>
     <t>31,6%</t>
   </si>
   <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
   </si>
   <si>
     <t>24,8%</t>
   </si>
   <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,55 +195,55 @@
     <t>81,09%</t>
   </si>
   <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
   </si>
   <si>
     <t>85,36%</t>
   </si>
   <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>83,22%</t>
   </si>
   <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
   </si>
   <si>
     <t>18,91%</t>
   </si>
   <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
   </si>
   <si>
     <t>14,64%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
   </si>
   <si>
     <t>16,78%</t>
   </si>
   <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -252,55 +252,55 @@
     <t>87,24%</t>
   </si>
   <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
   </si>
   <si>
     <t>90,32%</t>
   </si>
   <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
   </si>
   <si>
     <t>88,79%</t>
   </si>
   <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -309,538 +309,538 @@
     <t>92,21%</t>
   </si>
   <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
     <t>89,08%</t>
   </si>
   <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
   </si>
   <si>
     <t>10,92%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
     <t>6,42%</t>
   </si>
   <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>7,44%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
   </si>
   <si>
     <t>96,48%</t>
   </si>
   <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>96,95%</t>
   </si>
   <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>3,05%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>78,78%</t>
   </si>
   <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
   </si>
   <si>
     <t>86,37%</t>
   </si>
   <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
   </si>
   <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
   <si>
     <t>13,63%</t>
   </si>
   <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0430DC-FC65-4860-8051-6B33041A1207}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C119E36B-347F-4FDB-AF6E-86360352A295}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1713,7 +1713,7 @@
         <v>1073</v>
       </c>
       <c r="N10" s="7">
-        <v>1092991</v>
+        <v>1092992</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1815,7 +1815,7 @@
         <v>1287</v>
       </c>
       <c r="N12" s="7">
-        <v>1313434</v>
+        <v>1313435</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2342,7 +2342,7 @@
         <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,13 +2357,13 @@
         <v>622110</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>437</v>
@@ -2372,13 +2372,13 @@
         <v>443068</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1021</v>
@@ -2387,13 +2387,13 @@
         <v>1065178</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,7 +2449,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2471,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA82778-8170-4519-BEA7-7E5B95F9831D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DBF804-9346-4B24-8F67-FBA5EC9F1534}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2488,7 +2488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2595,13 +2595,13 @@
         <v>167335</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
@@ -2610,13 +2610,13 @@
         <v>202187</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>202</v>
@@ -2625,13 +2625,13 @@
         <v>369522</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2646,13 @@
         <v>210344</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>80</v>
@@ -2661,13 +2661,13 @@
         <v>145181</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>173</v>
@@ -2676,13 +2676,13 @@
         <v>355525</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2750,13 @@
         <v>274907</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>351</v>
@@ -2765,13 +2765,13 @@
         <v>364114</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>548</v>
@@ -2780,13 +2780,13 @@
         <v>639022</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2801,13 @@
         <v>153489</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>109</v>
@@ -2816,13 +2816,13 @@
         <v>134463</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>214</v>
@@ -2831,13 +2831,13 @@
         <v>287951</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2905,13 @@
         <v>422631</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>721</v>
@@ -2920,13 +2920,13 @@
         <v>488445</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>1135</v>
@@ -2935,13 +2935,13 @@
         <v>911077</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2956,13 @@
         <v>133159</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>124</v>
@@ -2971,13 +2971,13 @@
         <v>94871</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>255</v>
@@ -2986,13 +2986,13 @@
         <v>228029</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,28 +3060,28 @@
         <v>578277</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>1040</v>
       </c>
       <c r="I13" s="7">
-        <v>673178</v>
+        <v>673177</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M13" s="7">
         <v>1620</v>
@@ -3090,13 +3090,13 @@
         <v>1251455</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3111,13 @@
         <v>145713</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>99</v>
@@ -3126,13 +3126,13 @@
         <v>73517</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>184</v>
@@ -3141,13 +3141,13 @@
         <v>219230</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,7 +3174,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746695</v>
+        <v>746694</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3215,13 +3215,13 @@
         <v>549368</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>946</v>
@@ -3230,13 +3230,13 @@
         <v>558742</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>1552</v>
@@ -3245,13 +3245,13 @@
         <v>1108110</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3266,13 @@
         <v>50789</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
@@ -3281,13 +3281,13 @@
         <v>38321</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>113</v>
@@ -3296,13 +3296,13 @@
         <v>89110</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,16 +3367,16 @@
         <v>994</v>
       </c>
       <c r="D19" s="7">
-        <v>673180</v>
+        <v>673179</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>1658</v>
@@ -3385,13 +3385,13 @@
         <v>994731</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>2652</v>
@@ -3400,13 +3400,13 @@
         <v>1667911</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3421,13 @@
         <v>24575</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>49</v>
@@ -3436,13 +3436,13 @@
         <v>31281</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>83</v>
@@ -3451,13 +3451,13 @@
         <v>55856</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,7 +3469,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3525,13 +3525,13 @@
         <v>2665699</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>4839</v>
@@ -3540,13 +3540,13 @@
         <v>3281398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>7709</v>
@@ -3555,13 +3555,13 @@
         <v>5947097</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3576,13 @@
         <v>718067</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H23" s="7">
         <v>517</v>
@@ -3591,13 +3591,13 @@
         <v>517634</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M23" s="7">
         <v>1022</v>
@@ -3606,7 +3606,7 @@
         <v>1235701</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>266</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P38C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P38C-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6271529-B8C8-437C-9662-89ADE4999917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D90BF0BF-9B25-4DBA-BC67-2B6FF545D16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C686A6D9-C394-489D-8F48-63476EF89B3B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{958351FB-BA63-4FCE-BEF3-60A34E1F6101}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="307">
   <si>
     <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2016 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -132,7 +132,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>68,4%</t>
@@ -189,7 +189,7 @@
     <t>27,57%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>81,09%</t>
@@ -246,7 +246,7 @@
     <t>18,98%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>87,24%</t>
@@ -303,7 +303,7 @@
     <t>13,08%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>92,21%</t>
@@ -360,61 +360,118 @@
     <t>9,14%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>81,47%</t>
@@ -477,370 +534,430 @@
     <t>Población según si le han medido los niveles de glucosal por prescripción médica en 2023 (Tasa respuesta: 99,86%)</t>
   </si>
   <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
   </si>
   <si>
     <t>74,67%</t>
   </si>
   <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
   </si>
   <si>
     <t>25,33%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
   </si>
 </sst>
 </file>
@@ -1252,8 +1369,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C119E36B-347F-4FDB-AF6E-86360352A295}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F332FD7-0D0B-478E-BF8F-24E08907A782}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1698,7 +1815,7 @@
         <v>562</v>
       </c>
       <c r="I10" s="7">
-        <v>557448</v>
+        <v>557449</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1800,7 +1917,7 @@
         <v>656</v>
       </c>
       <c r="I12" s="7">
-        <v>653018</v>
+        <v>653019</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2145,10 +2262,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>608</v>
+        <v>315</v>
       </c>
       <c r="D19" s="7">
-        <v>573719</v>
+        <v>324219</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2160,10 +2277,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>641</v>
+        <v>346</v>
       </c>
       <c r="I19" s="7">
-        <v>761352</v>
+        <v>369636</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2175,10 +2292,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>1249</v>
+        <v>661</v>
       </c>
       <c r="N19" s="7">
-        <v>1335070</v>
+        <v>693855</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2196,10 +2313,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>16773</v>
+        <v>10111</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2211,10 +2328,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I20" s="7">
-        <v>15374</v>
+        <v>8126</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2226,10 +2343,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N20" s="7">
-        <v>32148</v>
+        <v>18237</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2247,10 +2364,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>626</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>590492</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2262,10 +2379,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>654</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>776726</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2277,10 +2394,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1280</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1367218</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2294,55 +2411,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2616</v>
+        <v>293</v>
       </c>
       <c r="D22" s="7">
-        <v>2735922</v>
+        <v>249500</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>2884</v>
+        <v>295</v>
       </c>
       <c r="I22" s="7">
-        <v>3084708</v>
+        <v>391715</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>5500</v>
+        <v>588</v>
       </c>
       <c r="N22" s="7">
-        <v>5820630</v>
+        <v>641214</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,49 +2468,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>584</v>
+        <v>8</v>
       </c>
       <c r="D23" s="7">
-        <v>622110</v>
+        <v>6662</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>437</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>443068</v>
+        <v>7249</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>1021</v>
+        <v>13</v>
       </c>
       <c r="N23" s="7">
-        <v>1065178</v>
+        <v>13911</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,63 +2519,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>301</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256162</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>300</v>
+      </c>
+      <c r="I24" s="7">
+        <v>398964</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>601</v>
+      </c>
+      <c r="N24" s="7">
+        <v>655125</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2616</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2735922</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2884</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3084708</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5500</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5820630</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>584</v>
+      </c>
+      <c r="D26" s="7">
+        <v>622110</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>437</v>
+      </c>
+      <c r="I26" s="7">
+        <v>443068</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1021</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1065178</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3200</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3358032</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3321</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3527776</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6521</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6885808</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2471,8 +2744,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DBF804-9346-4B24-8F67-FBA5EC9F1534}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F2ED58-E8BF-4723-98BF-863A9EDD2752}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2488,7 +2761,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2592,46 +2865,46 @@
         <v>79</v>
       </c>
       <c r="D4" s="7">
-        <v>167335</v>
+        <v>194211</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>123</v>
       </c>
       <c r="I4" s="7">
-        <v>202187</v>
+        <v>186977</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>202</v>
       </c>
       <c r="N4" s="7">
-        <v>369522</v>
+        <v>381188</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,46 +2916,46 @@
         <v>93</v>
       </c>
       <c r="D5" s="7">
-        <v>210344</v>
+        <v>205776</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>80</v>
       </c>
       <c r="I5" s="7">
-        <v>145181</v>
+        <v>119520</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>173</v>
       </c>
       <c r="N5" s="7">
-        <v>355525</v>
+        <v>325296</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,7 +2967,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2709,7 +2982,7 @@
         <v>203</v>
       </c>
       <c r="I6" s="7">
-        <v>347368</v>
+        <v>306497</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2724,7 +2997,7 @@
         <v>375</v>
       </c>
       <c r="N6" s="7">
-        <v>725047</v>
+        <v>706484</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2747,46 +3020,46 @@
         <v>197</v>
       </c>
       <c r="D7" s="7">
-        <v>274907</v>
+        <v>277244</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>351</v>
       </c>
       <c r="I7" s="7">
-        <v>364114</v>
+        <v>339586</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>548</v>
       </c>
       <c r="N7" s="7">
-        <v>639022</v>
+        <v>616830</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,46 +3071,46 @@
         <v>105</v>
       </c>
       <c r="D8" s="7">
-        <v>153489</v>
+        <v>146303</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>109</v>
       </c>
       <c r="I8" s="7">
-        <v>134463</v>
+        <v>171918</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>214</v>
       </c>
       <c r="N8" s="7">
-        <v>287951</v>
+        <v>318221</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +3122,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2864,7 +3137,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2879,7 +3152,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2902,46 +3175,46 @@
         <v>414</v>
       </c>
       <c r="D10" s="7">
-        <v>422631</v>
+        <v>413198</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>721</v>
       </c>
       <c r="I10" s="7">
-        <v>488445</v>
+        <v>458134</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>1135</v>
       </c>
       <c r="N10" s="7">
-        <v>911077</v>
+        <v>871332</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,46 +3226,46 @@
         <v>131</v>
       </c>
       <c r="D11" s="7">
-        <v>133159</v>
+        <v>121645</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="H11" s="7">
         <v>124</v>
       </c>
       <c r="I11" s="7">
-        <v>94871</v>
+        <v>84172</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7">
         <v>255</v>
       </c>
       <c r="N11" s="7">
-        <v>228029</v>
+        <v>205817</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,7 +3277,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>555790</v>
+        <v>534843</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3019,7 +3292,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>583316</v>
+        <v>542306</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3034,7 +3307,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1139106</v>
+        <v>1077149</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3057,46 +3330,46 @@
         <v>580</v>
       </c>
       <c r="D13" s="7">
-        <v>578277</v>
+        <v>553821</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>1040</v>
       </c>
       <c r="I13" s="7">
-        <v>673177</v>
+        <v>648112</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>1620</v>
       </c>
       <c r="N13" s="7">
-        <v>1251455</v>
+        <v>1201933</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,46 +3381,46 @@
         <v>85</v>
       </c>
       <c r="D14" s="7">
-        <v>145713</v>
+        <v>333965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>99</v>
       </c>
       <c r="I14" s="7">
-        <v>73517</v>
+        <v>64225</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>184</v>
       </c>
       <c r="N14" s="7">
-        <v>219230</v>
+        <v>398190</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,7 +3432,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3174,7 +3447,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746694</v>
+        <v>712337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3189,7 +3462,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1470685</v>
+        <v>1600123</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3212,46 +3485,46 @@
         <v>606</v>
       </c>
       <c r="D16" s="7">
-        <v>549368</v>
+        <v>515538</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>946</v>
       </c>
       <c r="I16" s="7">
-        <v>558742</v>
+        <v>513578</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>1552</v>
       </c>
       <c r="N16" s="7">
-        <v>1108110</v>
+        <v>1029116</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,46 +3536,46 @@
         <v>57</v>
       </c>
       <c r="D17" s="7">
-        <v>50789</v>
+        <v>45696</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>56</v>
       </c>
       <c r="I17" s="7">
-        <v>38321</v>
+        <v>34327</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>113</v>
       </c>
       <c r="N17" s="7">
-        <v>89110</v>
+        <v>80023</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,7 +3587,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3329,7 +3602,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3344,7 +3617,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3364,49 +3637,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>994</v>
+        <v>543</v>
       </c>
       <c r="D19" s="7">
-        <v>673179</v>
+        <v>349956</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
-        <v>1658</v>
+        <v>802</v>
       </c>
       <c r="I19" s="7">
-        <v>994731</v>
+        <v>596519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
-        <v>2652</v>
+        <v>1345</v>
       </c>
       <c r="N19" s="7">
-        <v>1667911</v>
+        <v>946475</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,49 +3688,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D20" s="7">
-        <v>24575</v>
+        <v>18209</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I20" s="7">
-        <v>31281</v>
+        <v>11849</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="N20" s="7">
-        <v>55856</v>
+        <v>30058</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,10 +3739,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3481,10 +3754,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1707</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026012</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3496,10 +3769,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2735</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1723767</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3513,55 +3786,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2870</v>
+        <v>451</v>
       </c>
       <c r="D22" s="7">
-        <v>2665699</v>
+        <v>278288</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
-        <v>4839</v>
+        <v>856</v>
       </c>
       <c r="I22" s="7">
-        <v>3281398</v>
+        <v>410731</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
-        <v>7709</v>
+        <v>1307</v>
       </c>
       <c r="N22" s="7">
-        <v>5947097</v>
+        <v>689019</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,49 +3843,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>505</v>
+        <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>718067</v>
+        <v>4471</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
-        <v>517</v>
+        <v>24</v>
       </c>
       <c r="I23" s="7">
-        <v>517634</v>
+        <v>14534</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
-        <v>1022</v>
+        <v>31</v>
       </c>
       <c r="N23" s="7">
-        <v>1235701</v>
+        <v>19005</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,63 +3894,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425265</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708024</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2870</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2582257</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4839</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3153638</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M25" s="7">
+        <v>7709</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5735894</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>505</v>
+      </c>
+      <c r="D26" s="7">
+        <v>876065</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H26" s="7">
+        <v>517</v>
+      </c>
+      <c r="I26" s="7">
+        <v>500544</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1022</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1376609</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3375</v>
       </c>
-      <c r="D24" s="7">
-        <v>3383766</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458322</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5356</v>
       </c>
-      <c r="I24" s="7">
-        <v>3799032</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3654182</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8731</v>
       </c>
-      <c r="N24" s="7">
-        <v>7182798</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7112503</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
